--- a/data/solar.xlsx
+++ b/data/solar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykad\Desktop\space_environment_lab04\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB56A9-4C2A-4747-BCFE-45D388F367F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1714A2F1-6E1C-435E-BF11-8A0CD6B43F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="878">
   <si>
     <t>SW_VTH</t>
   </si>
@@ -2653,108 +2653,6 @@
   </si>
   <si>
     <t>22:58:32.851</t>
-  </si>
-  <si>
-    <t>23:00:11.335</t>
-  </si>
-  <si>
-    <t>23:01:49.820</t>
-  </si>
-  <si>
-    <t>23:03:28.312</t>
-  </si>
-  <si>
-    <t>23:05:06.765</t>
-  </si>
-  <si>
-    <t>23:06:42.203</t>
-  </si>
-  <si>
-    <t>23:08:26.812</t>
-  </si>
-  <si>
-    <t>23:13:19.195</t>
-  </si>
-  <si>
-    <t>23:14:57.679</t>
-  </si>
-  <si>
-    <t>23:16:36.164</t>
-  </si>
-  <si>
-    <t>23:18:14.648</t>
-  </si>
-  <si>
-    <t>23:19:52.242</t>
-  </si>
-  <si>
-    <t>23:21:31.624</t>
-  </si>
-  <si>
-    <t>23:23:08.429</t>
-  </si>
-  <si>
-    <t>23:24:52.453</t>
-  </si>
-  <si>
-    <t>23:26:28.476</t>
-  </si>
-  <si>
-    <t>23:28:07.109</t>
-  </si>
-  <si>
-    <t>23:29:45.593</t>
-  </si>
-  <si>
-    <t>23:31:27.156</t>
-  </si>
-  <si>
-    <t>23:33:05.671</t>
-  </si>
-  <si>
-    <t>23:34:42.585</t>
-  </si>
-  <si>
-    <t>23:36:21.109</t>
-  </si>
-  <si>
-    <t>23:37:59.562</t>
-  </si>
-  <si>
-    <t>23:39:36.539</t>
-  </si>
-  <si>
-    <t>23:41:21.179</t>
-  </si>
-  <si>
-    <t>23:42:55.046</t>
-  </si>
-  <si>
-    <t>23:44:33.531</t>
-  </si>
-  <si>
-    <t>23:46:12.023</t>
-  </si>
-  <si>
-    <t>23:47:46.648</t>
-  </si>
-  <si>
-    <t>23:49:32.070</t>
-  </si>
-  <si>
-    <t>23:51:07.476</t>
-  </si>
-  <si>
-    <t>23:52:44.398</t>
-  </si>
-  <si>
-    <t>23:54:25.992</t>
-  </si>
-  <si>
-    <t>23:55:59.859</t>
-  </si>
-  <si>
-    <t>23:57:39.882</t>
   </si>
   <si>
     <t>DATE</t>
@@ -3091,20 +2989,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G907"/>
+  <dimension ref="A1:G873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F737" sqref="F737"/>
+    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
+      <selection activeCell="A907" sqref="A874:XFD907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
       <c r="B1" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -23176,788 +23074,6 @@
       </c>
       <c r="G873">
         <v>20.6327</v>
-      </c>
-    </row>
-    <row r="874" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A874" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B874" t="s">
-        <v>876</v>
-      </c>
-      <c r="C874">
-        <v>28.075399999999998</v>
-      </c>
-      <c r="D874">
-        <v>14.318099999999999</v>
-      </c>
-      <c r="E874">
-        <v>-370.57100000000003</v>
-      </c>
-      <c r="F874">
-        <v>-23.903500000000001</v>
-      </c>
-      <c r="G874">
-        <v>21.255400000000002</v>
-      </c>
-    </row>
-    <row r="875" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A875" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B875" t="s">
-        <v>877</v>
-      </c>
-      <c r="C875">
-        <v>27.6432</v>
-      </c>
-      <c r="D875">
-        <v>14.1945</v>
-      </c>
-      <c r="E875">
-        <v>-371.2</v>
-      </c>
-      <c r="F875">
-        <v>-23.525700000000001</v>
-      </c>
-      <c r="G875">
-        <v>21.266400000000001</v>
-      </c>
-    </row>
-    <row r="876" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A876" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B876" t="s">
-        <v>878</v>
-      </c>
-      <c r="C876">
-        <v>28.928699999999999</v>
-      </c>
-      <c r="D876">
-        <v>14.3256</v>
-      </c>
-      <c r="E876">
-        <v>-369.72500000000002</v>
-      </c>
-      <c r="F876">
-        <v>-23.4391</v>
-      </c>
-      <c r="G876">
-        <v>22.993099999999998</v>
-      </c>
-    </row>
-    <row r="877" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A877" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B877" t="s">
-        <v>879</v>
-      </c>
-      <c r="C877">
-        <v>27.9985</v>
-      </c>
-      <c r="D877">
-        <v>14.151199999999999</v>
-      </c>
-      <c r="E877">
-        <v>-370.74099999999999</v>
-      </c>
-      <c r="F877">
-        <v>-24.874700000000001</v>
-      </c>
-      <c r="G877">
-        <v>21.842199999999998</v>
-      </c>
-    </row>
-    <row r="878" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A878" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B878" t="s">
-        <v>880</v>
-      </c>
-      <c r="C878">
-        <v>30.075299999999999</v>
-      </c>
-      <c r="D878">
-        <v>15.880100000000001</v>
-      </c>
-      <c r="E878">
-        <v>-368.447</v>
-      </c>
-      <c r="F878">
-        <v>-24.110399999999998</v>
-      </c>
-      <c r="G878">
-        <v>21.017399999999999</v>
-      </c>
-    </row>
-    <row r="879" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A879" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B879" t="s">
-        <v>881</v>
-      </c>
-      <c r="C879">
-        <v>34.867600000000003</v>
-      </c>
-      <c r="D879">
-        <v>16.512799999999999</v>
-      </c>
-      <c r="E879">
-        <v>-370.50400000000002</v>
-      </c>
-      <c r="F879">
-        <v>-23.025099999999998</v>
-      </c>
-      <c r="G879">
-        <v>20.237100000000002</v>
-      </c>
-    </row>
-    <row r="880" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A880" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B880" t="s">
-        <v>882</v>
-      </c>
-      <c r="C880">
-        <v>34.4223</v>
-      </c>
-      <c r="D880">
-        <v>16.0641</v>
-      </c>
-      <c r="E880">
-        <v>-371.10500000000002</v>
-      </c>
-      <c r="F880">
-        <v>-24.373899999999999</v>
-      </c>
-      <c r="G880">
-        <v>21.2639</v>
-      </c>
-    </row>
-    <row r="881" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A881" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B881" t="s">
-        <v>883</v>
-      </c>
-      <c r="C881">
-        <v>33.773699999999998</v>
-      </c>
-      <c r="D881">
-        <v>16.087399999999999</v>
-      </c>
-      <c r="E881">
-        <v>-371.04899999999998</v>
-      </c>
-      <c r="F881">
-        <v>-25.0122</v>
-      </c>
-      <c r="G881">
-        <v>21.658200000000001</v>
-      </c>
-    </row>
-    <row r="882" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A882" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B882" t="s">
-        <v>884</v>
-      </c>
-      <c r="C882">
-        <v>33.513399999999997</v>
-      </c>
-      <c r="D882">
-        <v>15.933199999999999</v>
-      </c>
-      <c r="E882">
-        <v>-371.35500000000002</v>
-      </c>
-      <c r="F882">
-        <v>-26.1995</v>
-      </c>
-      <c r="G882">
-        <v>23.190999999999999</v>
-      </c>
-    </row>
-    <row r="883" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A883" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B883" t="s">
-        <v>885</v>
-      </c>
-      <c r="C883">
-        <v>32.848300000000002</v>
-      </c>
-      <c r="D883">
-        <v>16.172000000000001</v>
-      </c>
-      <c r="E883">
-        <v>-372.17399999999998</v>
-      </c>
-      <c r="F883">
-        <v>-27.741800000000001</v>
-      </c>
-      <c r="G883">
-        <v>22.5275</v>
-      </c>
-    </row>
-    <row r="884" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A884" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B884" t="s">
-        <v>886</v>
-      </c>
-      <c r="C884">
-        <v>30.069500000000001</v>
-      </c>
-      <c r="D884">
-        <v>16.278099999999998</v>
-      </c>
-      <c r="E884">
-        <v>-371.22899999999998</v>
-      </c>
-      <c r="F884">
-        <v>-22.204000000000001</v>
-      </c>
-      <c r="G884">
-        <v>24.4361</v>
-      </c>
-    </row>
-    <row r="885" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A885" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B885" t="s">
-        <v>887</v>
-      </c>
-      <c r="C885">
-        <v>33.1858</v>
-      </c>
-      <c r="D885">
-        <v>16.283000000000001</v>
-      </c>
-      <c r="E885">
-        <v>-371.75099999999998</v>
-      </c>
-      <c r="F885">
-        <v>-29.694600000000001</v>
-      </c>
-      <c r="G885">
-        <v>22.491499999999998</v>
-      </c>
-    </row>
-    <row r="886" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A886" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B886" t="s">
-        <v>888</v>
-      </c>
-      <c r="C886">
-        <v>29.624500000000001</v>
-      </c>
-      <c r="D886">
-        <v>15.766400000000001</v>
-      </c>
-      <c r="E886">
-        <v>-370.904</v>
-      </c>
-      <c r="F886">
-        <v>-30.092500000000001</v>
-      </c>
-      <c r="G886">
-        <v>22.444600000000001</v>
-      </c>
-    </row>
-    <row r="887" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A887" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B887" t="s">
-        <v>889</v>
-      </c>
-      <c r="C887">
-        <v>29.346699999999998</v>
-      </c>
-      <c r="D887">
-        <v>16.117599999999999</v>
-      </c>
-      <c r="E887">
-        <v>-370.26900000000001</v>
-      </c>
-      <c r="F887">
-        <v>-25.611000000000001</v>
-      </c>
-      <c r="G887">
-        <v>15.6997</v>
-      </c>
-    </row>
-    <row r="888" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A888" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B888" t="s">
-        <v>890</v>
-      </c>
-      <c r="C888">
-        <v>33.3142</v>
-      </c>
-      <c r="D888">
-        <v>17.328700000000001</v>
-      </c>
-      <c r="E888">
-        <v>-375.20600000000002</v>
-      </c>
-      <c r="F888">
-        <v>-18.310700000000001</v>
-      </c>
-      <c r="G888">
-        <v>18.114000000000001</v>
-      </c>
-    </row>
-    <row r="889" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A889" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B889" t="s">
-        <v>891</v>
-      </c>
-      <c r="C889">
-        <v>31.252600000000001</v>
-      </c>
-      <c r="D889">
-        <v>17.201599999999999</v>
-      </c>
-      <c r="E889">
-        <v>-374.32299999999998</v>
-      </c>
-      <c r="F889">
-        <v>-25.222200000000001</v>
-      </c>
-      <c r="G889">
-        <v>14.316599999999999</v>
-      </c>
-    </row>
-    <row r="890" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A890" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B890" t="s">
-        <v>892</v>
-      </c>
-      <c r="C890">
-        <v>30.4025</v>
-      </c>
-      <c r="D890">
-        <v>17.293099999999999</v>
-      </c>
-      <c r="E890">
-        <v>-374.25900000000001</v>
-      </c>
-      <c r="F890">
-        <v>-23.945499999999999</v>
-      </c>
-      <c r="G890">
-        <v>15.7828</v>
-      </c>
-    </row>
-    <row r="891" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A891" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B891" t="s">
-        <v>893</v>
-      </c>
-      <c r="C891">
-        <v>30.601400000000002</v>
-      </c>
-      <c r="D891">
-        <v>16.9514</v>
-      </c>
-      <c r="E891">
-        <v>-372.28300000000002</v>
-      </c>
-      <c r="F891">
-        <v>-23.396000000000001</v>
-      </c>
-      <c r="G891">
-        <v>17.035599999999999</v>
-      </c>
-    </row>
-    <row r="892" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A892" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B892" t="s">
-        <v>894</v>
-      </c>
-      <c r="C892">
-        <v>30.848199999999999</v>
-      </c>
-      <c r="D892">
-        <v>17.092300000000002</v>
-      </c>
-      <c r="E892">
-        <v>-373.19099999999997</v>
-      </c>
-      <c r="F892">
-        <v>-23.352900000000002</v>
-      </c>
-      <c r="G892">
-        <v>20.7606</v>
-      </c>
-    </row>
-    <row r="893" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A893" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B893" t="s">
-        <v>895</v>
-      </c>
-      <c r="C893">
-        <v>32.152799999999999</v>
-      </c>
-      <c r="D893">
-        <v>16.701899999999998</v>
-      </c>
-      <c r="E893">
-        <v>-372.447</v>
-      </c>
-      <c r="F893">
-        <v>-25.737400000000001</v>
-      </c>
-      <c r="G893">
-        <v>21.458600000000001</v>
-      </c>
-    </row>
-    <row r="894" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A894" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B894" t="s">
-        <v>896</v>
-      </c>
-      <c r="C894">
-        <v>33.606900000000003</v>
-      </c>
-      <c r="D894">
-        <v>16.134399999999999</v>
-      </c>
-      <c r="E894">
-        <v>-372.767</v>
-      </c>
-      <c r="F894">
-        <v>-23.762499999999999</v>
-      </c>
-      <c r="G894">
-        <v>27.685099999999998</v>
-      </c>
-    </row>
-    <row r="895" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A895" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B895" t="s">
-        <v>897</v>
-      </c>
-      <c r="C895">
-        <v>33.925400000000003</v>
-      </c>
-      <c r="D895">
-        <v>17.128599999999999</v>
-      </c>
-      <c r="E895">
-        <v>-374.709</v>
-      </c>
-      <c r="F895">
-        <v>-28.1113</v>
-      </c>
-      <c r="G895">
-        <v>24.156500000000001</v>
-      </c>
-    </row>
-    <row r="896" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A896" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B896" t="s">
-        <v>898</v>
-      </c>
-      <c r="C896">
-        <v>30.675599999999999</v>
-      </c>
-      <c r="D896">
-        <v>16.412099999999999</v>
-      </c>
-      <c r="E896">
-        <v>-372.02</v>
-      </c>
-      <c r="F896">
-        <v>-19.690999999999999</v>
-      </c>
-      <c r="G896">
-        <v>27.5136</v>
-      </c>
-    </row>
-    <row r="897" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A897" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B897" t="s">
-        <v>899</v>
-      </c>
-      <c r="C897">
-        <v>31.710999999999999</v>
-      </c>
-      <c r="D897">
-        <v>16.319600000000001</v>
-      </c>
-      <c r="E897">
-        <v>-374.74799999999999</v>
-      </c>
-      <c r="F897">
-        <v>-25.230599999999999</v>
-      </c>
-      <c r="G897">
-        <v>24.301100000000002</v>
-      </c>
-    </row>
-    <row r="898" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A898" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B898" t="s">
-        <v>900</v>
-      </c>
-      <c r="C898">
-        <v>29.441800000000001</v>
-      </c>
-      <c r="D898">
-        <v>14.696</v>
-      </c>
-      <c r="E898">
-        <v>-371.43099999999998</v>
-      </c>
-      <c r="F898">
-        <v>-23.534800000000001</v>
-      </c>
-      <c r="G898">
-        <v>23.437000000000001</v>
-      </c>
-    </row>
-    <row r="899" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A899" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B899" t="s">
-        <v>901</v>
-      </c>
-      <c r="C899">
-        <v>29.489799999999999</v>
-      </c>
-      <c r="D899">
-        <v>14.3529</v>
-      </c>
-      <c r="E899">
-        <v>-371.92599999999999</v>
-      </c>
-      <c r="F899">
-        <v>-25.041899999999998</v>
-      </c>
-      <c r="G899">
-        <v>26.238399999999999</v>
-      </c>
-    </row>
-    <row r="900" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A900" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B900" t="s">
-        <v>902</v>
-      </c>
-      <c r="C900">
-        <v>29.1875</v>
-      </c>
-      <c r="D900">
-        <v>14.203799999999999</v>
-      </c>
-      <c r="E900">
-        <v>-370.69600000000003</v>
-      </c>
-      <c r="F900">
-        <v>-25.732700000000001</v>
-      </c>
-      <c r="G900">
-        <v>24.785799999999998</v>
-      </c>
-    </row>
-    <row r="901" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A901" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B901" t="s">
-        <v>903</v>
-      </c>
-      <c r="C901">
-        <v>29.531500000000001</v>
-      </c>
-      <c r="D901">
-        <v>15.711</v>
-      </c>
-      <c r="E901">
-        <v>-371.01100000000002</v>
-      </c>
-      <c r="F901">
-        <v>-27.918099999999999</v>
-      </c>
-      <c r="G901">
-        <v>21.060700000000001</v>
-      </c>
-    </row>
-    <row r="902" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A902" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B902" t="s">
-        <v>904</v>
-      </c>
-      <c r="C902">
-        <v>28.3141</v>
-      </c>
-      <c r="D902">
-        <v>13.684200000000001</v>
-      </c>
-      <c r="E902">
-        <v>-377.13200000000001</v>
-      </c>
-      <c r="F902">
-        <v>-25.2897</v>
-      </c>
-      <c r="G902">
-        <v>29.201499999999999</v>
-      </c>
-    </row>
-    <row r="903" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A903" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B903" t="s">
-        <v>905</v>
-      </c>
-      <c r="C903">
-        <v>28.702999999999999</v>
-      </c>
-      <c r="D903">
-        <v>15.803000000000001</v>
-      </c>
-      <c r="E903">
-        <v>-376.18700000000001</v>
-      </c>
-      <c r="F903">
-        <v>-25.762699999999999</v>
-      </c>
-      <c r="G903">
-        <v>20.7455</v>
-      </c>
-    </row>
-    <row r="904" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A904" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B904" t="s">
-        <v>906</v>
-      </c>
-      <c r="C904">
-        <v>27.238600000000002</v>
-      </c>
-      <c r="D904">
-        <v>15.244199999999999</v>
-      </c>
-      <c r="E904">
-        <v>-374.96</v>
-      </c>
-      <c r="F904">
-        <v>-25.748000000000001</v>
-      </c>
-      <c r="G904">
-        <v>21.616700000000002</v>
-      </c>
-    </row>
-    <row r="905" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A905" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B905" t="s">
-        <v>907</v>
-      </c>
-      <c r="C905">
-        <v>25.9254</v>
-      </c>
-      <c r="D905">
-        <v>14.510999999999999</v>
-      </c>
-      <c r="E905">
-        <v>-375.685</v>
-      </c>
-      <c r="F905">
-        <v>-24.754100000000001</v>
-      </c>
-      <c r="G905">
-        <v>28.0975</v>
-      </c>
-    </row>
-    <row r="906" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A906" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B906" t="s">
-        <v>908</v>
-      </c>
-      <c r="C906">
-        <v>29.464400000000001</v>
-      </c>
-      <c r="D906">
-        <v>15.1723</v>
-      </c>
-      <c r="E906">
-        <v>-376.87400000000002</v>
-      </c>
-      <c r="F906">
-        <v>-24.6631</v>
-      </c>
-      <c r="G906">
-        <v>29.752500000000001</v>
-      </c>
-    </row>
-    <row r="907" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A907" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B907" t="s">
-        <v>909</v>
-      </c>
-      <c r="C907">
-        <v>26.374400000000001</v>
-      </c>
-      <c r="D907">
-        <v>14.073700000000001</v>
-      </c>
-      <c r="E907">
-        <v>-375.95800000000003</v>
-      </c>
-      <c r="F907">
-        <v>-23.8522</v>
-      </c>
-      <c r="G907">
-        <v>30.717500000000001</v>
       </c>
     </row>
   </sheetData>
